--- a/アルバム作業対象.xlsx
+++ b/アルバム作業対象.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19395" windowHeight="7380"/>
+    <workbookView xWindow="10230" yWindow="-15" windowWidth="10275" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="作業依頼まとめ" sheetId="5" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="200">
   <si>
     <t>００１</t>
     <phoneticPr fontId="1"/>
@@ -605,6 +605,192 @@
     <rPh sb="0" eb="2">
       <t>ジョウキョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16584</t>
+  </si>
+  <si>
+    <t>16586</t>
+  </si>
+  <si>
+    <t>16590</t>
+  </si>
+  <si>
+    <t>16627</t>
+  </si>
+  <si>
+    <t>16683</t>
+  </si>
+  <si>
+    <t>16701</t>
+  </si>
+  <si>
+    <t>16753</t>
+  </si>
+  <si>
+    <t>16764</t>
+  </si>
+  <si>
+    <t>16788</t>
+  </si>
+  <si>
+    <t>16797</t>
+  </si>
+  <si>
+    <t>16858</t>
+  </si>
+  <si>
+    <t>16859</t>
+  </si>
+  <si>
+    <t>16863</t>
+  </si>
+  <si>
+    <t>16887</t>
+  </si>
+  <si>
+    <t>16914</t>
+  </si>
+  <si>
+    <t>16928</t>
+  </si>
+  <si>
+    <t>15857</t>
+  </si>
+  <si>
+    <t>16655</t>
+  </si>
+  <si>
+    <t>16677</t>
+  </si>
+  <si>
+    <t>16742</t>
+  </si>
+  <si>
+    <t>16754</t>
+  </si>
+  <si>
+    <t>16787</t>
+  </si>
+  <si>
+    <t>16796</t>
+  </si>
+  <si>
+    <t>16813</t>
+  </si>
+  <si>
+    <t>16832</t>
+  </si>
+  <si>
+    <t>16852</t>
+  </si>
+  <si>
+    <t>16872</t>
+  </si>
+  <si>
+    <t>16879</t>
+  </si>
+  <si>
+    <t>16891</t>
+  </si>
+  <si>
+    <t>16896</t>
+  </si>
+  <si>
+    <t>16907</t>
+  </si>
+  <si>
+    <t>ギミレ　ユバラズ</t>
+  </si>
+  <si>
+    <t>デハカル　カピタ</t>
+  </si>
+  <si>
+    <t>グエン　ティ　ミン　リ</t>
+  </si>
+  <si>
+    <t>パタク　マトリカ</t>
+  </si>
+  <si>
+    <t>グェン　ヒュウ　タン</t>
+  </si>
+  <si>
+    <t>ハシャニ　パビトラ　ラナトウンガ</t>
+  </si>
+  <si>
+    <t>ブサル　アニタ</t>
+  </si>
+  <si>
+    <t>バニヤ　サロズ</t>
+  </si>
+  <si>
+    <t>チョハン　スレス</t>
+  </si>
+  <si>
+    <t>スレスタ　ジャニス</t>
+  </si>
+  <si>
+    <t>タパ　ラナ　ケム</t>
+  </si>
+  <si>
+    <t>カデル　ビカス</t>
+  </si>
+  <si>
+    <t>リマル　リシ</t>
+  </si>
+  <si>
+    <t>スベディ　ビシュヌ　プラサド</t>
+  </si>
+  <si>
+    <t>シルワル　カットリ　クリスナ</t>
+  </si>
+  <si>
+    <t>カドカ　スサン</t>
+  </si>
+  <si>
+    <t>シャヒ　ヨゲンドラ</t>
+  </si>
+  <si>
+    <t>マハト　ラズ</t>
+  </si>
+  <si>
+    <t>プン　ディパ</t>
+  </si>
+  <si>
+    <t>ラナ　サンディプ</t>
+  </si>
+  <si>
+    <t>タパ　マガル　サンガム</t>
+  </si>
+  <si>
+    <t>ダカル　プラカス</t>
+  </si>
+  <si>
+    <t>チェトリ　アシム</t>
+  </si>
+  <si>
+    <t>タミ　クリシュナ</t>
+  </si>
+  <si>
+    <t>アンサリ　ムムタジュ　エマド</t>
+  </si>
+  <si>
+    <t>サプコタ　ニルマル</t>
+  </si>
+  <si>
+    <t>ゴータム　サミル</t>
+  </si>
+  <si>
+    <t>ビバス　ニサニ　ラジソリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョン　コン　クウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タパリヤ　サンジャヤ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -829,7 +1015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -945,6 +1131,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1248,28 +1437,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F62"/>
+  <dimension ref="B2:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="4.75" customWidth="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="8" width="20.375" customWidth="1"/>
+    <col min="6" max="7" width="20.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="28.5" customHeight="1">
+    <row r="2" spans="2:8" ht="28.5" customHeight="1">
       <c r="C2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19.5" customHeight="1" thickBot="1">
+    <row r="3" spans="2:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="C3" s="38" t="s">
         <v>135</v>
       </c>
@@ -1283,7 +1473,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="21" customHeight="1" thickTop="1">
+    <row r="4" spans="2:8" ht="21" customHeight="1" thickTop="1">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1299,8 +1489,14 @@
       <c r="F4" s="37" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="21" customHeight="1">
+      <c r="G4" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="21" customHeight="1">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1316,8 +1512,14 @@
       <c r="F5" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="21" customHeight="1">
+      <c r="G5" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="21" customHeight="1">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1333,8 +1535,14 @@
       <c r="F6" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="21" customHeight="1">
+      <c r="G6" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="21" customHeight="1">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1350,8 +1558,14 @@
       <c r="F7" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="21" customHeight="1">
+      <c r="G7" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="21" customHeight="1">
       <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
@@ -1364,8 +1578,14 @@
       <c r="F8" s="33" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="21" customHeight="1">
+      <c r="G8" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="21" customHeight="1">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1381,8 +1601,14 @@
       <c r="F9" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="21" customHeight="1">
+      <c r="G9" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="21" customHeight="1">
       <c r="B10">
         <v>6</v>
       </c>
@@ -1398,8 +1624,14 @@
       <c r="F10" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="21" customHeight="1">
+      <c r="G10" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="21" customHeight="1">
       <c r="B11">
         <v>7</v>
       </c>
@@ -1415,8 +1647,14 @@
       <c r="F11" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="21" customHeight="1">
+      <c r="G11" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="21" customHeight="1">
       <c r="B12">
         <v>8</v>
       </c>
@@ -1432,8 +1670,14 @@
       <c r="F12" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="21" customHeight="1">
+      <c r="G12" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="21" customHeight="1">
       <c r="B13">
         <v>9</v>
       </c>
@@ -1449,8 +1693,14 @@
       <c r="F13" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="21" customHeight="1">
+      <c r="G13" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="21" customHeight="1">
       <c r="B14">
         <v>10</v>
       </c>
@@ -1466,8 +1716,14 @@
       <c r="F14" s="27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="21" customHeight="1">
+      <c r="G14" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="21" customHeight="1">
       <c r="B15">
         <v>11</v>
       </c>
@@ -1483,8 +1739,14 @@
       <c r="F15" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="21" customHeight="1">
+      <c r="G15" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="21" customHeight="1">
       <c r="B16">
         <v>12</v>
       </c>
@@ -1500,8 +1762,14 @@
       <c r="F16" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="21" customHeight="1">
+      <c r="G16" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="21" customHeight="1">
       <c r="B17">
         <v>13</v>
       </c>
@@ -1517,8 +1785,14 @@
       <c r="F17" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="21" customHeight="1">
+      <c r="G17" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="21" customHeight="1">
       <c r="B18">
         <v>14</v>
       </c>
@@ -1534,8 +1808,14 @@
       <c r="F18" s="27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="21" customHeight="1">
+      <c r="G18" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="21" customHeight="1">
       <c r="B19">
         <v>15</v>
       </c>
@@ -1551,8 +1831,14 @@
       <c r="F19" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="21" customHeight="1">
+      <c r="G19" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="21" customHeight="1">
       <c r="B20">
         <v>16</v>
       </c>
@@ -1568,8 +1854,11 @@
       <c r="F20" s="13" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" ht="21" customHeight="1">
+      <c r="G20" s="39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="21" customHeight="1">
       <c r="B21">
         <v>17</v>
       </c>
@@ -1585,8 +1874,14 @@
       <c r="F21" s="13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="21" customHeight="1">
+      <c r="G21" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="21" customHeight="1">
       <c r="B22">
         <v>18</v>
       </c>
@@ -1602,8 +1897,14 @@
       <c r="F22" s="13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" ht="21" customHeight="1">
+      <c r="G22" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="21" customHeight="1">
       <c r="B23">
         <v>19</v>
       </c>
@@ -1619,8 +1920,14 @@
       <c r="F23" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" ht="21" customHeight="1">
+      <c r="G23" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="21" customHeight="1">
       <c r="B24">
         <v>20</v>
       </c>
@@ -1636,8 +1943,14 @@
       <c r="F24" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="21" customHeight="1">
+      <c r="G24" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="21" customHeight="1">
       <c r="B25">
         <v>21</v>
       </c>
@@ -1653,8 +1966,14 @@
       <c r="F25" s="13" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="21" customHeight="1">
+      <c r="G25" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="21" customHeight="1">
       <c r="B26">
         <v>22</v>
       </c>
@@ -1670,8 +1989,14 @@
       <c r="F26" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="21" customHeight="1">
+      <c r="G26" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="21" customHeight="1">
       <c r="B27">
         <v>23</v>
       </c>
@@ -1687,8 +2012,14 @@
       <c r="F27" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" ht="21" customHeight="1">
+      <c r="G27" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="21" customHeight="1">
       <c r="C28" s="29" t="s">
         <v>115</v>
       </c>
@@ -1701,8 +2032,14 @@
       <c r="F28" s="28" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" ht="21" customHeight="1">
+      <c r="G28" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="21" customHeight="1">
       <c r="B29">
         <v>24</v>
       </c>
@@ -1718,8 +2055,14 @@
       <c r="F29" s="26" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" ht="21" customHeight="1">
+      <c r="G29" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="21" customHeight="1">
       <c r="B30">
         <v>25</v>
       </c>
@@ -1735,8 +2078,14 @@
       <c r="F30" s="13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" ht="21" customHeight="1">
+      <c r="G30" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="21" customHeight="1">
       <c r="B31">
         <v>26</v>
       </c>
@@ -1752,8 +2101,14 @@
       <c r="F31" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" ht="21" customHeight="1">
+      <c r="G31" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="21" customHeight="1">
       <c r="B32">
         <v>27</v>
       </c>
@@ -1769,8 +2124,14 @@
       <c r="F32" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" ht="21" customHeight="1">
+      <c r="G32" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="21" customHeight="1">
       <c r="B33">
         <v>28</v>
       </c>
@@ -1786,8 +2147,14 @@
       <c r="F33" s="25" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" ht="21" customHeight="1">
+      <c r="G33" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="21" customHeight="1">
       <c r="B34">
         <v>29</v>
       </c>
@@ -1803,8 +2170,14 @@
       <c r="F34" s="13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" ht="21" hidden="1" customHeight="1">
+      <c r="G34" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="21" hidden="1" customHeight="1">
       <c r="C35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1818,7 +2191,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1">
+    <row r="36" spans="2:8" hidden="1">
       <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1832,7 +2205,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1">
+    <row r="37" spans="2:8" hidden="1">
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
@@ -1846,7 +2219,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1">
+    <row r="38" spans="2:8" hidden="1">
       <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
@@ -1860,7 +2233,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1">
+    <row r="39" spans="2:8" hidden="1">
       <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
@@ -1874,7 +2247,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1">
+    <row r="40" spans="2:8" hidden="1">
       <c r="C40" s="1" t="s">
         <v>9</v>
       </c>
@@ -1888,7 +2261,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1">
+    <row r="41" spans="2:8" hidden="1">
       <c r="C41" s="1" t="s">
         <v>10</v>
       </c>
@@ -1902,7 +2275,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1">
+    <row r="42" spans="2:8" hidden="1">
       <c r="C42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1916,7 +2289,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1">
+    <row r="43" spans="2:8" hidden="1">
       <c r="C43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1930,7 +2303,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1">
+    <row r="44" spans="2:8" hidden="1">
       <c r="C44" s="1" t="s">
         <v>18</v>
       </c>
@@ -1944,7 +2317,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1">
+    <row r="45" spans="2:8" hidden="1">
       <c r="C45" s="1" t="s">
         <v>21</v>
       </c>
@@ -1958,7 +2331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1">
+    <row r="46" spans="2:8" hidden="1">
       <c r="C46" s="1" t="s">
         <v>22</v>
       </c>
@@ -1972,7 +2345,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1">
+    <row r="47" spans="2:8" hidden="1">
       <c r="C47" s="1" t="s">
         <v>23</v>
       </c>
@@ -1986,7 +2359,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1">
+    <row r="48" spans="2:8" hidden="1">
       <c r="C48" s="1" t="s">
         <v>28</v>
       </c>
